--- a/Planning/Achievements.xlsx
+++ b/Planning/Achievements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Simonsen\Documents\GitHub\Pingu\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEBF60C-2C2B-4AFE-8C41-7B43F956FCF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42B906D-CEEA-4D49-9D15-29A3705CB963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
   <si>
     <t>User</t>
   </si>
@@ -357,15 +357,9 @@
     <t>Mom? Can I invite a friend over?</t>
   </si>
   <si>
-    <t>What's a webhook?</t>
-  </si>
-  <si>
     <t>Penguin Owner</t>
   </si>
   <si>
-    <t>Rest In Piece</t>
-  </si>
-  <si>
     <t>I never said anything!</t>
   </si>
   <si>
@@ -514,6 +508,57 @@
   </si>
   <si>
     <t>Subscribe to my OnlyFans!</t>
+  </si>
+  <si>
+    <t>Rest In Peace</t>
+  </si>
+  <si>
+    <t>Moderation</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Ban</t>
+  </si>
+  <si>
+    <t>Censor</t>
+  </si>
+  <si>
+    <t>Kick</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>The Government of China</t>
+  </si>
+  <si>
+    <t>Just like a soccerball</t>
+  </si>
+  <si>
+    <t>I don't ever want to see you again!</t>
+  </si>
+  <si>
+    <t>Warn</t>
+  </si>
+  <si>
+    <t>You're on my watchlist…</t>
+  </si>
+  <si>
+    <t>You are forgiven.</t>
+  </si>
+  <si>
+    <t>Unban</t>
+  </si>
+  <si>
+    <t>Unmute</t>
+  </si>
+  <si>
+    <t>Silence!</t>
+  </si>
+  <si>
+    <t>Jeez, I didn't actually think you'd shush…</t>
   </si>
 </sst>
 </file>
@@ -537,7 +582,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -670,11 +715,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -719,6 +773,12 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1015,11 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,9 +1144,6 @@
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -1154,7 +1211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
         <v>92</v>
@@ -1190,10 +1247,10 @@
         <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,7 +1325,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,7 +1334,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,10 +1403,10 @@
         <v>65</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1358,7 +1415,7 @@
         <v>66</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1367,7 +1424,7 @@
         <v>67</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1376,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1453,7 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,7 +1462,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1420,7 +1477,7 @@
         <v>23</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1435,7 +1492,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1444,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1453,7 +1510,7 @@
         <v>30</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1462,7 +1519,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1471,7 +1528,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1480,7 +1537,7 @@
         <v>31</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1489,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,10 +1555,10 @@
         <v>32</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1510,10 +1567,10 @@
         <v>33</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1522,10 +1579,10 @@
         <v>34</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1534,7 +1591,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1543,7 +1600,7 @@
         <v>36</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,10 +1609,10 @@
         <v>37</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,7 +1627,7 @@
         <v>38</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,7 +1651,7 @@
         <v>41</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1603,10 +1660,10 @@
         <v>42</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1615,7 +1672,7 @@
         <v>43</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1624,7 +1681,7 @@
         <v>45</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1632,8 +1689,8 @@
       <c r="B79" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>140</v>
+      <c r="C79" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,7 +1699,7 @@
         <v>44</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,10 +1714,10 @@
         <v>47</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1669,7 +1726,7 @@
         <v>49</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1678,7 +1735,7 @@
         <v>50</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1689,7 +1746,7 @@
         <v>52</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1698,7 +1755,7 @@
         <v>53</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1707,7 +1764,7 @@
         <v>54</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1716,7 +1773,7 @@
         <v>55</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1727,7 +1784,7 @@
         <v>57</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1760,10 +1817,10 @@
         <v>62</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1772,10 +1829,10 @@
         <v>63</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1787,12 +1844,88 @@
         <v>64</v>
       </c>
     </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A52:A84"/>
     <mergeCell ref="A85:A88"/>
     <mergeCell ref="A89:A96"/>
     <mergeCell ref="A3:A51"/>
+    <mergeCell ref="A97:A103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Planning/Achievements.xlsx
+++ b/Planning/Achievements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Simonsen\Documents\GitHub\Pingu\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSimonsen\source\repos\Pingu\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42B906D-CEEA-4D49-9D15-29A3705CB963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E8BE42-E0F7-4E4F-A18A-5C9C094451AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -716,19 +716,72 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -775,11 +828,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,8 +1143,8 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,8 +1901,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15"/>
-      <c r="B96" s="11" t="s">
+      <c r="A96" s="14"/>
+      <c r="B96" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1845,10 +1910,10 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1856,20 +1921,20 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="2" t="s">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="2" t="s">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
-      <c r="B100" s="2" t="s">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -1877,8 +1942,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="B101" s="2" t="s">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19" t="s">
         <v>161</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -1886,8 +1951,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="2" t="s">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -1895,8 +1960,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="2" t="s">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -1904,15 +1969,17 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19" t="s">
         <v>169</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B105" s="2" t="s">
+    <row r="105" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="20"/>
+      <c r="B105" s="21" t="s">
         <v>165</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -1925,7 +1992,7 @@
     <mergeCell ref="A85:A88"/>
     <mergeCell ref="A89:A96"/>
     <mergeCell ref="A3:A51"/>
-    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="A97:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Planning/Achievements.xlsx
+++ b/Planning/Achievements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSimonsen\source\repos\Pingu\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Simonsen\Documents\GitHub\Pingu\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E8BE42-E0F7-4E4F-A18A-5C9C094451AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C422DE6B-3D35-460D-B34E-6659E7F727E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -831,20 +831,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,8 +1143,8 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,7 +1913,7 @@
       <c r="A97" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="19" t="s">
         <v>158</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1921,20 +1921,20 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19" t="s">
+      <c r="A98" s="17"/>
+      <c r="B98" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19" t="s">
+      <c r="A99" s="17"/>
+      <c r="B99" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19" t="s">
+      <c r="A100" s="17"/>
+      <c r="B100" s="20" t="s">
         <v>160</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19" t="s">
+      <c r="A101" s="17"/>
+      <c r="B101" s="20" t="s">
         <v>161</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -1951,8 +1951,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19" t="s">
+      <c r="A102" s="17"/>
+      <c r="B102" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -1960,8 +1960,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19" t="s">
+      <c r="A103" s="17"/>
+      <c r="B103" s="20" t="s">
         <v>168</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -1969,8 +1969,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19" t="s">
+      <c r="A104" s="17"/>
+      <c r="B104" s="20" t="s">
         <v>169</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -1978,7 +1978,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="20"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="21" t="s">
         <v>165</v>
       </c>
